--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12EAB66-B0B8-4CB4-AB7F-7000242C8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43388B3-F606-4C46-986A-E11FE2599051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2100" windowWidth="25080" windowHeight="12270" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="68100" yWindow="10590" windowWidth="15000" windowHeight="11595" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1167">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3987,25 +3987,22 @@
     <t>output7</t>
   </si>
   <si>
-    <t>文讀音</t>
-  </si>
-  <si>
     <t>河洛話</t>
   </si>
   <si>
-    <t>閩拼調號</t>
-  </si>
-  <si>
     <t>無預設</t>
   </si>
   <si>
     <t>上及右</t>
   </si>
   <si>
-    <t>雅俗通</t>
-  </si>
-  <si>
-    <t>方音符號</t>
+    <t>白話音</t>
+  </si>
+  <si>
+    <t>閩拼注音</t>
+  </si>
+  <si>
+    <t>閩拼調符</t>
   </si>
 </sst>
 </file>
@@ -6996,8 +6993,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7109,7 +7106,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -7117,7 +7114,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
@@ -7125,7 +7122,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -7133,7 +7130,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -7141,7 +7138,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -7157,7 +7154,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -7165,29 +7162,29 @@
         <v>1156</v>
       </c>
       <c r="C20" s="47">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{F3921839-E8DE-4FBB-A826-EC894094FA07}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{E63DE152-850D-4D55-8A6C-02770A085720}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{2B282083-6556-45CA-8161-4777E24167B9}">
       <formula1>"無預設, SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{8B26464C-8D45-4DAB-8CD3-133D8E6DA72D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{15073685-FCE7-47BF-ACB1-997078E7DBC3}">
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{96E7211F-3F66-4AE2-B2C7-9A12D8C2B02A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{8C3EC2BA-D954-4BD8-88E8-23DD9B5D006F}">
       <formula1>"白話音, 文讀音"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{DA27CAB0-65C9-4E40-AD59-F7B4693C00B1}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C15" xr:uid="{D5D3E041-FB0A-4D86-8833-54CE1BCA04EC}">
-      <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{EEECD041-0329-43D4-B052-E5B5DAC4C888}">
+      <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼注音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43388B3-F606-4C46-986A-E11FE2599051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472E5FC-110B-4A01-B423-D812D199DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68100" yWindow="10590" windowWidth="15000" windowHeight="11595" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="31485" yWindow="1710" windowWidth="15015" windowHeight="13170" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1175">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4003,6 +4003,30 @@
   </si>
   <si>
     <t>閩拼調符</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>十五音</t>
+  </si>
+  <si>
+    <t>雅俗通</t>
+  </si>
+  <si>
+    <t>方音符號</t>
+  </si>
+  <si>
+    <t>注音二式</t>
+  </si>
+  <si>
+    <t>白話字</t>
+  </si>
+  <si>
+    <t>台羅拼音</t>
+  </si>
+  <si>
+    <t>閩拼調號</t>
   </si>
 </sst>
 </file>
@@ -4301,7 +4325,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4323,6 +4347,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4404,7 +4440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4584,6 +4620,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6660,6 +6708,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6991,9 +7044,9 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -7002,7 +7055,9 @@
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="15" style="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="15" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26.25">
@@ -7124,6 +7179,9 @@
       <c r="C15" s="43" t="s">
         <v>1165</v>
       </c>
+      <c r="E15" s="61" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="30">
       <c r="B16" s="41" t="s">
@@ -7132,37 +7190,77 @@
       <c r="C16" s="43" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="30">
+      <c r="E16" s="61" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30">
       <c r="B17" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="30">
+      <c r="E17" s="61" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30">
       <c r="B18" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="30">
+      <c r="E18" s="61" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30">
       <c r="B19" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="30">
+        <v>1170</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30">
       <c r="B20" s="41" t="s">
         <v>1156</v>
       </c>
       <c r="C20" s="47">
         <v>0</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="E21" s="62" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="E22" s="62" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="63" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="63" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="E25" s="60" t="s">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -7184,7 +7282,7 @@
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{EEECD041-0329-43D4-B052-E5B5DAC4C888}">
-      <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼注音,閩拼調號, 閩拼調符"</formula1>
+      <formula1>$E$15:$E$24</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7195,7 +7293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -16984,19 +17082,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="171" priority="98">
+    <cfRule type="expression" dxfId="171" priority="97">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="97">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="169" priority="58">
+    <cfRule type="expression" dxfId="169" priority="57">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="57">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -17008,11 +17106,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="165" priority="54">
+    <cfRule type="expression" dxfId="165" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="53">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -17040,35 +17138,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="157" priority="46">
+    <cfRule type="expression" dxfId="157" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="45">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="155" priority="44">
+    <cfRule type="expression" dxfId="155" priority="43">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="43">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="153" priority="42">
+    <cfRule type="expression" dxfId="153" priority="41">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="41">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="151" priority="40">
+    <cfRule type="expression" dxfId="151" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -17104,11 +17202,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="141" priority="30">
+    <cfRule type="expression" dxfId="141" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -17128,19 +17226,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="135" priority="24">
+    <cfRule type="expression" dxfId="135" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="133" priority="22">
+    <cfRule type="expression" dxfId="133" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -17168,11 +17266,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="125" priority="14">
+    <cfRule type="expression" dxfId="125" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -17184,19 +17282,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="121" priority="10">
+    <cfRule type="expression" dxfId="121" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="9">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="119" priority="8">
+    <cfRule type="expression" dxfId="119" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -17224,43 +17322,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="111" priority="144">
+    <cfRule type="expression" dxfId="111" priority="143">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="144">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="143">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="109" priority="142">
+    <cfRule type="expression" dxfId="109" priority="141">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="142">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="141">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="107" priority="140">
+    <cfRule type="expression" dxfId="107" priority="139">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="140">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="139">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="105" priority="138">
+    <cfRule type="expression" dxfId="105" priority="137">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="138">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="137">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="103" priority="94">
+    <cfRule type="expression" dxfId="103" priority="93">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="93">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -17328,43 +17426,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="85" priority="76">
+    <cfRule type="expression" dxfId="85" priority="75">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="75">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="83" priority="74">
+    <cfRule type="expression" dxfId="83" priority="73">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="73">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="81" priority="71">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="71">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="79" priority="70">
+    <cfRule type="expression" dxfId="79" priority="69">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="69">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="77" priority="68">
+    <cfRule type="expression" dxfId="77" priority="67">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="67">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
@@ -29023,11 +29121,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="69" priority="60">
+    <cfRule type="expression" dxfId="69" priority="59">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="59">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
@@ -29047,19 +29145,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="63" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="53">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="61" priority="51">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="51">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
@@ -29071,19 +29169,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="57" priority="47">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="47">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="55" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="45">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -29095,19 +29193,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="51" priority="41">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="41">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="49" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -29127,11 +29225,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="43" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -29143,11 +29241,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="39" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -29167,19 +29265,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="33" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="31" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -29199,11 +29297,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
@@ -29215,43 +29313,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
